--- a/Code/Results/Cases/Case_2_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_164/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9879527970667472</v>
+        <v>1.016490782005725</v>
       </c>
       <c r="D2">
-        <v>1.008483042389849</v>
+        <v>1.021944675990463</v>
       </c>
       <c r="E2">
-        <v>1.000325208370111</v>
+        <v>1.044482531898008</v>
       </c>
       <c r="F2">
-        <v>1.002058249728038</v>
+        <v>1.047566473697818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040821377602747</v>
+        <v>1.026394172581937</v>
       </c>
       <c r="J2">
-        <v>1.01049990711268</v>
+        <v>1.021710291576711</v>
       </c>
       <c r="K2">
-        <v>1.019825446623209</v>
+        <v>1.024780511540088</v>
       </c>
       <c r="L2">
-        <v>1.011780014381789</v>
+        <v>1.047253457019663</v>
       </c>
       <c r="M2">
-        <v>1.013488984148188</v>
+        <v>1.050328752574698</v>
       </c>
       <c r="N2">
-        <v>1.007648891973034</v>
+        <v>1.011365970100988</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9920339514984086</v>
+        <v>1.017325744020829</v>
       </c>
       <c r="D3">
-        <v>1.011360994164919</v>
+        <v>1.022532671439952</v>
       </c>
       <c r="E3">
-        <v>1.005749631084121</v>
+        <v>1.045707572248977</v>
       </c>
       <c r="F3">
-        <v>1.007771803305222</v>
+        <v>1.048853260925318</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04178027445456</v>
+        <v>1.026495617710091</v>
       </c>
       <c r="J3">
-        <v>1.012744160137634</v>
+        <v>1.022181330669626</v>
       </c>
       <c r="K3">
-        <v>1.021850543762613</v>
+        <v>1.025175665944069</v>
       </c>
       <c r="L3">
-        <v>1.016309469130591</v>
+        <v>1.048288665045977</v>
       </c>
       <c r="M3">
-        <v>1.018306198942601</v>
+        <v>1.051426179047708</v>
       </c>
       <c r="N3">
-        <v>1.008387320432825</v>
+        <v>1.011520875876483</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9946171697252029</v>
+        <v>1.017865832929648</v>
       </c>
       <c r="D4">
-        <v>1.013181400655328</v>
+        <v>1.02291245255349</v>
       </c>
       <c r="E4">
-        <v>1.00918724844606</v>
+        <v>1.046501006417348</v>
       </c>
       <c r="F4">
-        <v>1.01139163315177</v>
+        <v>1.049686584711606</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042370547325311</v>
+        <v>1.026559124306531</v>
       </c>
       <c r="J4">
-        <v>1.014159578364983</v>
+        <v>1.022485311882561</v>
       </c>
       <c r="K4">
-        <v>1.02312329886171</v>
+        <v>1.025429971193584</v>
       </c>
       <c r="L4">
-        <v>1.019176041781632</v>
+        <v>1.048958702022266</v>
       </c>
       <c r="M4">
-        <v>1.021354488241991</v>
+        <v>1.052136423150934</v>
       </c>
       <c r="N4">
-        <v>1.008853056710167</v>
+        <v>1.011620837376528</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9956898343869469</v>
+        <v>1.018092840402293</v>
       </c>
       <c r="D5">
-        <v>1.013936955057865</v>
+        <v>1.023071945458091</v>
       </c>
       <c r="E5">
-        <v>1.010615853996241</v>
+        <v>1.046834747017682</v>
       </c>
       <c r="F5">
-        <v>1.012895715994159</v>
+        <v>1.050037079389938</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042611589382294</v>
+        <v>1.026585310463632</v>
       </c>
       <c r="J5">
-        <v>1.014746068518021</v>
+        <v>1.022612910171557</v>
       </c>
       <c r="K5">
-        <v>1.023649576663548</v>
+        <v>1.025536548127677</v>
       </c>
       <c r="L5">
-        <v>1.02036639134536</v>
+        <v>1.049240431483279</v>
       </c>
       <c r="M5">
-        <v>1.022620192022859</v>
+        <v>1.052435043057916</v>
       </c>
       <c r="N5">
-        <v>1.009046042266043</v>
+        <v>1.011662795554914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9958691713247303</v>
+        <v>1.018130953233208</v>
       </c>
       <c r="D6">
-        <v>1.014063252061938</v>
+        <v>1.023098715174785</v>
       </c>
       <c r="E6">
-        <v>1.010854772589414</v>
+        <v>1.046890794170288</v>
       </c>
       <c r="F6">
-        <v>1.013147242774247</v>
+        <v>1.050095938715464</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042651647924568</v>
+        <v>1.026589677184912</v>
       </c>
       <c r="J6">
-        <v>1.014844048326717</v>
+        <v>1.022634323000885</v>
       </c>
       <c r="K6">
-        <v>1.023737431762915</v>
+        <v>1.025554423302937</v>
       </c>
       <c r="L6">
-        <v>1.020565408610516</v>
+        <v>1.049287737817372</v>
       </c>
       <c r="M6">
-        <v>1.022831801587436</v>
+        <v>1.052485184628842</v>
       </c>
       <c r="N6">
-        <v>1.009078282888246</v>
+        <v>1.011669836659839</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9946315544704109</v>
+        <v>1.017868866396319</v>
       </c>
       <c r="D7">
-        <v>1.013191534354554</v>
+        <v>1.022914584364006</v>
       </c>
       <c r="E7">
-        <v>1.009206401684952</v>
+        <v>1.046505465163545</v>
       </c>
       <c r="F7">
-        <v>1.01141179928782</v>
+        <v>1.049691267387613</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042373795917859</v>
+        <v>1.026559476220203</v>
       </c>
       <c r="J7">
-        <v>1.014167448356162</v>
+        <v>1.022487017626107</v>
       </c>
       <c r="K7">
-        <v>1.023130365264083</v>
+        <v>1.025431396589718</v>
       </c>
       <c r="L7">
-        <v>1.019192004466837</v>
+        <v>1.048962466323602</v>
       </c>
       <c r="M7">
-        <v>1.021371461854808</v>
+        <v>1.052140413192985</v>
       </c>
       <c r="N7">
-        <v>1.008855646329512</v>
+        <v>1.011621398282055</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9893442456479459</v>
+        <v>1.016772999488573</v>
       </c>
       <c r="D8">
-        <v>1.009464484522155</v>
+        <v>1.022143533986159</v>
       </c>
       <c r="E8">
-        <v>1.002173863674208</v>
+        <v>1.044896385121828</v>
       </c>
       <c r="F8">
-        <v>1.004005653644755</v>
+        <v>1.048001207961682</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041151768862885</v>
+        <v>1.026428898034902</v>
       </c>
       <c r="J8">
-        <v>1.011266129735738</v>
+        <v>1.021869649166498</v>
       </c>
       <c r="K8">
-        <v>1.02051776155417</v>
+        <v>1.024914342120365</v>
       </c>
       <c r="L8">
-        <v>1.013324468895369</v>
+        <v>1.047603271981963</v>
       </c>
       <c r="M8">
-        <v>1.015131637822225</v>
+        <v>1.050699605339965</v>
       </c>
       <c r="N8">
-        <v>1.00790099808021</v>
+        <v>1.011418377555503</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9795645074578384</v>
+        <v>1.014840553048117</v>
       </c>
       <c r="D9">
-        <v>1.002563878535691</v>
+        <v>1.020779619826178</v>
       </c>
       <c r="E9">
-        <v>0.9891914034777365</v>
+        <v>1.042066686185896</v>
       </c>
       <c r="F9">
-        <v>0.9903254845351173</v>
+        <v>1.045028317909731</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03876131309475</v>
+        <v>1.026182486586354</v>
       </c>
       <c r="J9">
-        <v>1.005860123625678</v>
+        <v>1.020775582027314</v>
       </c>
       <c r="K9">
-        <v>1.015615495109196</v>
+        <v>1.023992661175833</v>
       </c>
       <c r="L9">
-        <v>1.002462311082007</v>
+        <v>1.045209599833458</v>
       </c>
       <c r="M9">
-        <v>1.003577498715204</v>
+        <v>1.048161722719234</v>
       </c>
       <c r="N9">
-        <v>1.006122412218929</v>
+        <v>1.011058552323739</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9727006456628318</v>
+        <v>1.013551381450126</v>
       </c>
       <c r="D10">
-        <v>0.997720452436443</v>
+        <v>1.019866922937086</v>
       </c>
       <c r="E10">
-        <v>0.9800850342339745</v>
+        <v>1.040183988080828</v>
       </c>
       <c r="F10">
-        <v>0.9807244361160334</v>
+        <v>1.043049826915368</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036999514693203</v>
+        <v>1.026007291232504</v>
       </c>
       <c r="J10">
-        <v>1.002040868279886</v>
+        <v>1.020042095733855</v>
       </c>
       <c r="K10">
-        <v>1.012130987155822</v>
+        <v>1.023371171030315</v>
       </c>
       <c r="L10">
-        <v>0.9948234163763974</v>
+        <v>1.043614704063343</v>
       </c>
       <c r="M10">
-        <v>0.9954506622132764</v>
+        <v>1.046470424950998</v>
       </c>
       <c r="N10">
-        <v>1.00486606897671</v>
+        <v>1.010817289971633</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9696389051509847</v>
+        <v>1.012992960600715</v>
       </c>
       <c r="D11">
-        <v>0.9955609076765122</v>
+        <v>1.019470922759566</v>
       </c>
       <c r="E11">
-        <v>0.9760213234054252</v>
+        <v>1.039369636755735</v>
       </c>
       <c r="F11">
-        <v>0.9764387558357895</v>
+        <v>1.042193917499635</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036194599417831</v>
+        <v>1.02592884939453</v>
       </c>
       <c r="J11">
-        <v>1.000331654264645</v>
+        <v>1.019723523811519</v>
       </c>
       <c r="K11">
-        <v>1.010567027148536</v>
+        <v>1.023100403763114</v>
       </c>
       <c r="L11">
-        <v>0.9914100669482168</v>
+        <v>1.042924293292856</v>
       </c>
       <c r="M11">
-        <v>0.9918191145450852</v>
+        <v>1.045738210033947</v>
       </c>
       <c r="N11">
-        <v>1.004303884277131</v>
+        <v>1.010712497194097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9684874286961186</v>
+        <v>1.012785508920912</v>
       </c>
       <c r="D12">
-        <v>0.9947489657445062</v>
+        <v>1.019323712499149</v>
       </c>
       <c r="E12">
-        <v>0.9744924984733936</v>
+        <v>1.039067279566891</v>
       </c>
       <c r="F12">
-        <v>0.9748262427276113</v>
+        <v>1.041876111891497</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035889100961177</v>
+        <v>1.025899325580152</v>
       </c>
       <c r="J12">
-        <v>0.9996880386756501</v>
+        <v>1.019605047419215</v>
       </c>
       <c r="K12">
-        <v>1.009977463514868</v>
+        <v>1.022999580708523</v>
       </c>
       <c r="L12">
-        <v>0.9901252596931583</v>
+        <v>1.042667871242613</v>
       </c>
       <c r="M12">
-        <v>0.9904521637640101</v>
+        <v>1.045466250908829</v>
       </c>
       <c r="N12">
-        <v>1.004092200329536</v>
+        <v>1.010673523991887</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9687350798507329</v>
+        <v>1.012830009322662</v>
       </c>
       <c r="D13">
-        <v>0.9949235803468115</v>
+        <v>1.019355294923092</v>
       </c>
       <c r="E13">
-        <v>0.9748213351757293</v>
+        <v>1.039132130389322</v>
       </c>
       <c r="F13">
-        <v>0.9751730881038341</v>
+        <v>1.04194427699062</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035954929715259</v>
+        <v>1.025905676040108</v>
       </c>
       <c r="J13">
-        <v>0.9998264986606725</v>
+        <v>1.019630467538652</v>
       </c>
       <c r="K13">
-        <v>1.010104323845534</v>
+        <v>1.023021218803382</v>
       </c>
       <c r="L13">
-        <v>0.9904016397382565</v>
+        <v>1.042722873429563</v>
       </c>
       <c r="M13">
-        <v>0.9907462143717478</v>
+        <v>1.045524586264056</v>
       </c>
       <c r="N13">
-        <v>1.004137739070023</v>
+        <v>1.010681886066473</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9695440181092033</v>
+        <v>1.012975813172986</v>
       </c>
       <c r="D14">
-        <v>0.9954939946290414</v>
+        <v>1.019458756715446</v>
       </c>
       <c r="E14">
-        <v>0.9758953533393195</v>
+        <v>1.039344641189966</v>
       </c>
       <c r="F14">
-        <v>0.9763058937862117</v>
+        <v>1.042167645205373</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036169480979521</v>
+        <v>1.025926416837633</v>
       </c>
       <c r="J14">
-        <v>1.000278633500591</v>
+        <v>1.019713733461305</v>
       </c>
       <c r="K14">
-        <v>1.010518472016823</v>
+        <v>1.023092074751791</v>
       </c>
       <c r="L14">
-        <v>0.9913042163686083</v>
+        <v>1.042903096817447</v>
       </c>
       <c r="M14">
-        <v>0.991706496632532</v>
+        <v>1.045715729445363</v>
       </c>
       <c r="N14">
-        <v>1.004286445631416</v>
+        <v>1.010709276644871</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.970040525611146</v>
+        <v>1.01306564387964</v>
       </c>
       <c r="D15">
-        <v>0.9958441349298451</v>
+        <v>1.019522487326953</v>
       </c>
       <c r="E15">
-        <v>0.9765544834440842</v>
+        <v>1.039475593178215</v>
       </c>
       <c r="F15">
-        <v>0.9770010784204604</v>
+        <v>1.042305285228566</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036300803265396</v>
+        <v>1.025939144665688</v>
       </c>
       <c r="J15">
-        <v>1.000556038221597</v>
+        <v>1.01976501720668</v>
       </c>
       <c r="K15">
-        <v>1.010772486536432</v>
+        <v>1.023135698604227</v>
       </c>
       <c r="L15">
-        <v>0.991858045910493</v>
+        <v>1.043014141968784</v>
       </c>
       <c r="M15">
-        <v>0.9922957336736787</v>
+        <v>1.045833501431213</v>
       </c>
       <c r="N15">
-        <v>1.00437768508135</v>
+        <v>1.010726146465604</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9729018925547338</v>
+        <v>1.013588437843347</v>
       </c>
       <c r="D16">
-        <v>0.9978624255646237</v>
+        <v>1.019893187512726</v>
       </c>
       <c r="E16">
-        <v>0.9803520831353819</v>
+        <v>1.040238052088251</v>
       </c>
       <c r="F16">
-        <v>0.981006046730979</v>
+        <v>1.043106647328695</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037052031680262</v>
+        <v>1.026012442843095</v>
       </c>
       <c r="J16">
-        <v>1.002153100896829</v>
+        <v>1.020063217983952</v>
       </c>
       <c r="K16">
-        <v>1.012233590547774</v>
+        <v>1.023389106121243</v>
       </c>
       <c r="L16">
-        <v>0.9950476343269771</v>
+        <v>1.043660528241778</v>
       </c>
       <c r="M16">
-        <v>0.9956892108751668</v>
+        <v>1.046519022245058</v>
       </c>
       <c r="N16">
-        <v>1.004902985239888</v>
+        <v>1.010824237907312</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9746722458890648</v>
+        <v>1.013916319492195</v>
       </c>
       <c r="D17">
-        <v>0.999111470396266</v>
+        <v>1.020125505781024</v>
       </c>
       <c r="E17">
-        <v>0.9827010719508362</v>
+        <v>1.040716554143817</v>
       </c>
       <c r="F17">
-        <v>0.9834829835746207</v>
+        <v>1.043609531137336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037511864132968</v>
+        <v>1.026057730358526</v>
       </c>
       <c r="J17">
-        <v>1.003139772872305</v>
+        <v>1.020250012962366</v>
       </c>
       <c r="K17">
-        <v>1.013135096711424</v>
+        <v>1.023547618831042</v>
       </c>
       <c r="L17">
-        <v>0.997019368498377</v>
+        <v>1.044066039166782</v>
       </c>
       <c r="M17">
-        <v>0.9977869493418584</v>
+        <v>1.04694906483835</v>
       </c>
       <c r="N17">
-        <v>1.00522753469176</v>
+        <v>1.010885681365246</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9756962667411365</v>
+        <v>1.014107547853818</v>
       </c>
       <c r="D18">
-        <v>0.9998340357991258</v>
+        <v>1.020260936156222</v>
       </c>
       <c r="E18">
-        <v>0.9840596528441536</v>
+        <v>1.040995740277609</v>
       </c>
       <c r="F18">
-        <v>0.9849154498293891</v>
+        <v>1.043902931099921</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037776034222498</v>
+        <v>1.026083896711704</v>
       </c>
       <c r="J18">
-        <v>1.003709960752307</v>
+        <v>1.020358873910911</v>
       </c>
       <c r="K18">
-        <v>1.013655634616382</v>
+        <v>1.023639916576588</v>
       </c>
       <c r="L18">
-        <v>0.9981593297160445</v>
+        <v>1.044302585207453</v>
       </c>
       <c r="M18">
-        <v>0.9989997434232253</v>
+        <v>1.047199913852345</v>
       </c>
       <c r="N18">
-        <v>1.005415094260496</v>
+        <v>1.010921488959045</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9760439949368148</v>
+        <v>1.014172748455903</v>
       </c>
       <c r="D19">
-        <v>1.000079409931577</v>
+        <v>1.020307101318464</v>
       </c>
       <c r="E19">
-        <v>0.9845209723055931</v>
+        <v>1.041090949823438</v>
       </c>
       <c r="F19">
-        <v>0.9854018380703509</v>
+        <v>1.044002985899102</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03786542956853</v>
+        <v>1.026092776489063</v>
       </c>
       <c r="J19">
-        <v>1.003903489359578</v>
+        <v>1.020395976815218</v>
       </c>
       <c r="K19">
-        <v>1.013832236727106</v>
+        <v>1.023671360545586</v>
       </c>
       <c r="L19">
-        <v>0.9985463416827282</v>
+        <v>1.044383244449476</v>
       </c>
       <c r="M19">
-        <v>0.9994114786306718</v>
+        <v>1.047285449029797</v>
       </c>
       <c r="N19">
-        <v>1.005478755157294</v>
+        <v>1.010933693099947</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9744831980708681</v>
+        <v>1.013881142900298</v>
       </c>
       <c r="D20">
-        <v>0.998978081387638</v>
+        <v>1.020100588176942</v>
       </c>
       <c r="E20">
-        <v>0.9824502505782147</v>
+        <v>1.040665206725609</v>
       </c>
       <c r="F20">
-        <v>0.9832185120995187</v>
+        <v>1.04355556857754</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037462947986196</v>
+        <v>1.02605289719558</v>
       </c>
       <c r="J20">
-        <v>1.003034465541946</v>
+        <v>1.020229981284428</v>
       </c>
       <c r="K20">
-        <v>1.013038923834722</v>
+        <v>1.023530628463077</v>
       </c>
       <c r="L20">
-        <v>0.9968088740279095</v>
+        <v>1.044022529789989</v>
       </c>
       <c r="M20">
-        <v>0.9975630048020492</v>
+        <v>1.046902924058897</v>
       </c>
       <c r="N20">
-        <v>1.005192894986362</v>
+        <v>1.010879092302951</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9693062044508485</v>
+        <v>1.01293287837518</v>
       </c>
       <c r="D21">
-        <v>0.9953262957242344</v>
+        <v>1.019428293046303</v>
       </c>
       <c r="E21">
-        <v>0.975579627492894</v>
+        <v>1.039282058502368</v>
       </c>
       <c r="F21">
-        <v>0.9759728912840171</v>
+        <v>1.042101865608308</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036106482569551</v>
+        <v>1.025920319867411</v>
       </c>
       <c r="J21">
-        <v>1.000145735676035</v>
+        <v>1.019689217707903</v>
       </c>
       <c r="K21">
-        <v>1.010396757169376</v>
+        <v>1.023071216279645</v>
       </c>
       <c r="L21">
-        <v>0.9910389065991179</v>
+        <v>1.042850024779356</v>
       </c>
       <c r="M21">
-        <v>0.9914242246916702</v>
+        <v>1.045659442052339</v>
       </c>
       <c r="N21">
-        <v>1.004242735415622</v>
+        <v>1.010701212138899</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9659686009353641</v>
+        <v>1.012336497674111</v>
       </c>
       <c r="D22">
-        <v>0.9929733900106668</v>
+        <v>1.019004911488335</v>
       </c>
       <c r="E22">
-        <v>0.9711469488023515</v>
+        <v>1.038413164830066</v>
       </c>
       <c r="F22">
-        <v>0.9712972290257419</v>
+        <v>1.041188542548704</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035215802371606</v>
+        <v>1.025834724410998</v>
       </c>
       <c r="J22">
-        <v>0.9982786999881398</v>
+        <v>1.019348381968753</v>
       </c>
       <c r="K22">
-        <v>1.008685342505983</v>
+        <v>1.022780931059625</v>
       </c>
       <c r="L22">
-        <v>0.9873125097732355</v>
+        <v>1.042112981393368</v>
       </c>
       <c r="M22">
-        <v>0.9874595743941669</v>
+        <v>1.044877719690388</v>
       </c>
       <c r="N22">
-        <v>1.003628691860867</v>
+        <v>1.010589091351088</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9677460219666986</v>
+        <v>1.01265266610604</v>
       </c>
       <c r="D23">
-        <v>0.9942262535545617</v>
+        <v>1.019229418303322</v>
       </c>
       <c r="E23">
-        <v>0.9735079434472069</v>
+        <v>1.038873711532943</v>
       </c>
       <c r="F23">
-        <v>0.9737877425876644</v>
+        <v>1.04167264863534</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035691624367071</v>
+        <v>1.025880312146603</v>
       </c>
       <c r="J23">
-        <v>0.9992734080299163</v>
+        <v>1.019529144453989</v>
       </c>
       <c r="K23">
-        <v>1.009597477737057</v>
+        <v>1.022934952377992</v>
       </c>
       <c r="L23">
-        <v>0.9892976679290078</v>
+        <v>1.042503687564238</v>
       </c>
       <c r="M23">
-        <v>0.9895716585446007</v>
+        <v>1.045292116022376</v>
       </c>
       <c r="N23">
-        <v>1.003955832159328</v>
+        <v>1.010648555198931</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9745686471533809</v>
+        <v>1.013897037748154</v>
       </c>
       <c r="D24">
-        <v>0.9990383725919405</v>
+        <v>1.020111847607519</v>
       </c>
       <c r="E24">
-        <v>0.9825636215430975</v>
+        <v>1.040688408153761</v>
       </c>
       <c r="F24">
-        <v>0.9833380532537932</v>
+        <v>1.043579951699181</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037485063564886</v>
+        <v>1.026055081863566</v>
       </c>
       <c r="J24">
-        <v>1.003082065806033</v>
+        <v>1.020239033026059</v>
       </c>
       <c r="K24">
-        <v>1.0130823965565</v>
+        <v>1.023538306173571</v>
       </c>
       <c r="L24">
-        <v>0.9969040186077529</v>
+        <v>1.044042189747358</v>
       </c>
       <c r="M24">
-        <v>0.9976642289350133</v>
+        <v>1.046923773052193</v>
       </c>
       <c r="N24">
-        <v>1.005208552559983</v>
+        <v>1.010882069713413</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.982150895359865</v>
+        <v>1.015340295170845</v>
       </c>
       <c r="D25">
-        <v>1.004389206338246</v>
+        <v>1.021132833956144</v>
       </c>
       <c r="E25">
-        <v>0.9926229840460247</v>
+        <v>1.042797562077951</v>
       </c>
       <c r="F25">
-        <v>0.9939424060364034</v>
+        <v>1.045796270730393</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039408261162702</v>
+        <v>1.026248118307597</v>
       </c>
       <c r="J25">
-        <v>1.007294254720538</v>
+        <v>1.021059152354103</v>
       </c>
       <c r="K25">
-        <v>1.016919765511588</v>
+        <v>1.024232182832198</v>
       </c>
       <c r="L25">
-        <v>1.005336908414451</v>
+        <v>1.045828261189635</v>
       </c>
       <c r="M25">
-        <v>1.006635491875594</v>
+        <v>1.04881771244392</v>
       </c>
       <c r="N25">
-        <v>1.006594214273375</v>
+        <v>1.011151820071311</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_164/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016490782005725</v>
+        <v>0.987952797066747</v>
       </c>
       <c r="D2">
-        <v>1.021944675990463</v>
+        <v>1.008483042389849</v>
       </c>
       <c r="E2">
-        <v>1.044482531898008</v>
+        <v>1.000325208370111</v>
       </c>
       <c r="F2">
-        <v>1.047566473697818</v>
+        <v>1.002058249728038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026394172581937</v>
+        <v>1.040821377602747</v>
       </c>
       <c r="J2">
-        <v>1.021710291576711</v>
+        <v>1.01049990711268</v>
       </c>
       <c r="K2">
-        <v>1.024780511540088</v>
+        <v>1.019825446623209</v>
       </c>
       <c r="L2">
-        <v>1.047253457019663</v>
+        <v>1.011780014381789</v>
       </c>
       <c r="M2">
-        <v>1.050328752574698</v>
+        <v>1.013488984148188</v>
       </c>
       <c r="N2">
-        <v>1.011365970100988</v>
+        <v>1.007648891973035</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017325744020829</v>
+        <v>0.9920339514984092</v>
       </c>
       <c r="D3">
-        <v>1.022532671439952</v>
+        <v>1.011360994164918</v>
       </c>
       <c r="E3">
-        <v>1.045707572248977</v>
+        <v>1.005749631084121</v>
       </c>
       <c r="F3">
-        <v>1.048853260925318</v>
+        <v>1.007771803305223</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026495617710091</v>
+        <v>1.04178027445456</v>
       </c>
       <c r="J3">
-        <v>1.022181330669626</v>
+        <v>1.012744160137634</v>
       </c>
       <c r="K3">
-        <v>1.025175665944069</v>
+        <v>1.021850543762613</v>
       </c>
       <c r="L3">
-        <v>1.048288665045977</v>
+        <v>1.016309469130591</v>
       </c>
       <c r="M3">
-        <v>1.051426179047708</v>
+        <v>1.018306198942601</v>
       </c>
       <c r="N3">
-        <v>1.011520875876483</v>
+        <v>1.008387320432825</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017865832929648</v>
+        <v>0.9946171697252031</v>
       </c>
       <c r="D4">
-        <v>1.02291245255349</v>
+        <v>1.013181400655329</v>
       </c>
       <c r="E4">
-        <v>1.046501006417348</v>
+        <v>1.009187248446059</v>
       </c>
       <c r="F4">
-        <v>1.049686584711606</v>
+        <v>1.01139163315177</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026559124306531</v>
+        <v>1.04237054732531</v>
       </c>
       <c r="J4">
-        <v>1.022485311882561</v>
+        <v>1.014159578364983</v>
       </c>
       <c r="K4">
-        <v>1.025429971193584</v>
+        <v>1.023123298861711</v>
       </c>
       <c r="L4">
-        <v>1.048958702022266</v>
+        <v>1.019176041781632</v>
       </c>
       <c r="M4">
-        <v>1.052136423150934</v>
+        <v>1.021354488241991</v>
       </c>
       <c r="N4">
-        <v>1.011620837376528</v>
+        <v>1.008853056710167</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018092840402293</v>
+        <v>0.9956898343869462</v>
       </c>
       <c r="D5">
-        <v>1.023071945458091</v>
+        <v>1.013936955057865</v>
       </c>
       <c r="E5">
-        <v>1.046834747017682</v>
+        <v>1.01061585399624</v>
       </c>
       <c r="F5">
-        <v>1.050037079389938</v>
+        <v>1.012895715994158</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026585310463632</v>
+        <v>1.042611589382293</v>
       </c>
       <c r="J5">
-        <v>1.022612910171557</v>
+        <v>1.01474606851802</v>
       </c>
       <c r="K5">
-        <v>1.025536548127677</v>
+        <v>1.023649576663547</v>
       </c>
       <c r="L5">
-        <v>1.049240431483279</v>
+        <v>1.020366391345359</v>
       </c>
       <c r="M5">
-        <v>1.052435043057916</v>
+        <v>1.022620192022858</v>
       </c>
       <c r="N5">
-        <v>1.011662795554914</v>
+        <v>1.009046042266043</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018130953233208</v>
+        <v>0.9958691713247312</v>
       </c>
       <c r="D6">
-        <v>1.023098715174785</v>
+        <v>1.014063252061939</v>
       </c>
       <c r="E6">
-        <v>1.046890794170288</v>
+        <v>1.010854772589414</v>
       </c>
       <c r="F6">
-        <v>1.050095938715464</v>
+        <v>1.013147242774247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026589677184912</v>
+        <v>1.042651647924569</v>
       </c>
       <c r="J6">
-        <v>1.022634323000885</v>
+        <v>1.014844048326717</v>
       </c>
       <c r="K6">
-        <v>1.025554423302937</v>
+        <v>1.023737431762916</v>
       </c>
       <c r="L6">
-        <v>1.049287737817372</v>
+        <v>1.020565408610516</v>
       </c>
       <c r="M6">
-        <v>1.052485184628842</v>
+        <v>1.022831801587436</v>
       </c>
       <c r="N6">
-        <v>1.011669836659839</v>
+        <v>1.009078282888246</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017868866396319</v>
+        <v>0.994631554470411</v>
       </c>
       <c r="D7">
-        <v>1.022914584364006</v>
+        <v>1.013191534354554</v>
       </c>
       <c r="E7">
-        <v>1.046505465163545</v>
+        <v>1.009206401684952</v>
       </c>
       <c r="F7">
-        <v>1.049691267387613</v>
+        <v>1.01141179928782</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026559476220203</v>
+        <v>1.042373795917858</v>
       </c>
       <c r="J7">
-        <v>1.022487017626107</v>
+        <v>1.014167448356162</v>
       </c>
       <c r="K7">
-        <v>1.025431396589718</v>
+        <v>1.023130365264083</v>
       </c>
       <c r="L7">
-        <v>1.048962466323602</v>
+        <v>1.019192004466836</v>
       </c>
       <c r="M7">
-        <v>1.052140413192985</v>
+        <v>1.021371461854808</v>
       </c>
       <c r="N7">
-        <v>1.011621398282055</v>
+        <v>1.008855646329512</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016772999488573</v>
+        <v>0.9893442456479455</v>
       </c>
       <c r="D8">
-        <v>1.022143533986159</v>
+        <v>1.009464484522155</v>
       </c>
       <c r="E8">
-        <v>1.044896385121828</v>
+        <v>1.002173863674208</v>
       </c>
       <c r="F8">
-        <v>1.048001207961682</v>
+        <v>1.004005653644754</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026428898034902</v>
+        <v>1.041151768862884</v>
       </c>
       <c r="J8">
-        <v>1.021869649166498</v>
+        <v>1.011266129735738</v>
       </c>
       <c r="K8">
-        <v>1.024914342120365</v>
+        <v>1.020517761554169</v>
       </c>
       <c r="L8">
-        <v>1.047603271981963</v>
+        <v>1.013324468895368</v>
       </c>
       <c r="M8">
-        <v>1.050699605339965</v>
+        <v>1.015131637822225</v>
       </c>
       <c r="N8">
-        <v>1.011418377555503</v>
+        <v>1.00790099808021</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014840553048117</v>
+        <v>0.9795645074578384</v>
       </c>
       <c r="D9">
-        <v>1.020779619826178</v>
+        <v>1.002563878535691</v>
       </c>
       <c r="E9">
-        <v>1.042066686185896</v>
+        <v>0.9891914034777376</v>
       </c>
       <c r="F9">
-        <v>1.045028317909731</v>
+        <v>0.9903254845351186</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026182486586354</v>
+        <v>1.03876131309475</v>
       </c>
       <c r="J9">
-        <v>1.020775582027314</v>
+        <v>1.005860123625678</v>
       </c>
       <c r="K9">
-        <v>1.023992661175833</v>
+        <v>1.015615495109196</v>
       </c>
       <c r="L9">
-        <v>1.045209599833458</v>
+        <v>1.002462311082008</v>
       </c>
       <c r="M9">
-        <v>1.048161722719234</v>
+        <v>1.003577498715206</v>
       </c>
       <c r="N9">
-        <v>1.011058552323739</v>
+        <v>1.006122412218929</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013551381450126</v>
+        <v>0.9727006456628314</v>
       </c>
       <c r="D10">
-        <v>1.019866922937086</v>
+        <v>0.9977204524364425</v>
       </c>
       <c r="E10">
-        <v>1.040183988080828</v>
+        <v>0.9800850342339744</v>
       </c>
       <c r="F10">
-        <v>1.043049826915368</v>
+        <v>0.980724436116033</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026007291232504</v>
+        <v>1.036999514693203</v>
       </c>
       <c r="J10">
-        <v>1.020042095733855</v>
+        <v>1.002040868279886</v>
       </c>
       <c r="K10">
-        <v>1.023371171030315</v>
+        <v>1.012130987155821</v>
       </c>
       <c r="L10">
-        <v>1.043614704063343</v>
+        <v>0.9948234163763973</v>
       </c>
       <c r="M10">
-        <v>1.046470424950998</v>
+        <v>0.9954506622132758</v>
       </c>
       <c r="N10">
-        <v>1.010817289971633</v>
+        <v>1.00486606897671</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012992960600715</v>
+        <v>0.9696389051509847</v>
       </c>
       <c r="D11">
-        <v>1.019470922759566</v>
+        <v>0.9955609076765121</v>
       </c>
       <c r="E11">
-        <v>1.039369636755735</v>
+        <v>0.9760213234054255</v>
       </c>
       <c r="F11">
-        <v>1.042193917499635</v>
+        <v>0.9764387558357895</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02592884939453</v>
+        <v>1.036194599417831</v>
       </c>
       <c r="J11">
-        <v>1.019723523811519</v>
+        <v>1.000331654264645</v>
       </c>
       <c r="K11">
-        <v>1.023100403763114</v>
+        <v>1.010567027148536</v>
       </c>
       <c r="L11">
-        <v>1.042924293292856</v>
+        <v>0.9914100669482169</v>
       </c>
       <c r="M11">
-        <v>1.045738210033947</v>
+        <v>0.9918191145450851</v>
       </c>
       <c r="N11">
-        <v>1.010712497194097</v>
+        <v>1.00430388427713</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012785508920912</v>
+        <v>0.9684874286961191</v>
       </c>
       <c r="D12">
-        <v>1.019323712499149</v>
+        <v>0.9947489657445066</v>
       </c>
       <c r="E12">
-        <v>1.039067279566891</v>
+        <v>0.9744924984733928</v>
       </c>
       <c r="F12">
-        <v>1.041876111891497</v>
+        <v>0.9748262427276109</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025899325580152</v>
+        <v>1.035889100961178</v>
       </c>
       <c r="J12">
-        <v>1.019605047419215</v>
+        <v>0.9996880386756507</v>
       </c>
       <c r="K12">
-        <v>1.022999580708523</v>
+        <v>1.009977463514869</v>
       </c>
       <c r="L12">
-        <v>1.042667871242613</v>
+        <v>0.9901252596931578</v>
       </c>
       <c r="M12">
-        <v>1.045466250908829</v>
+        <v>0.9904521637640097</v>
       </c>
       <c r="N12">
-        <v>1.010673523991887</v>
+        <v>1.004092200329536</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012830009322662</v>
+        <v>0.9687350798507328</v>
       </c>
       <c r="D13">
-        <v>1.019355294923092</v>
+        <v>0.9949235803468113</v>
       </c>
       <c r="E13">
-        <v>1.039132130389322</v>
+        <v>0.9748213351757287</v>
       </c>
       <c r="F13">
-        <v>1.04194427699062</v>
+        <v>0.9751730881038334</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025905676040108</v>
+        <v>1.035954929715258</v>
       </c>
       <c r="J13">
-        <v>1.019630467538652</v>
+        <v>0.9998264986606724</v>
       </c>
       <c r="K13">
-        <v>1.023021218803382</v>
+        <v>1.010104323845534</v>
       </c>
       <c r="L13">
-        <v>1.042722873429563</v>
+        <v>0.9904016397382559</v>
       </c>
       <c r="M13">
-        <v>1.045524586264056</v>
+        <v>0.9907462143717471</v>
       </c>
       <c r="N13">
-        <v>1.010681886066473</v>
+        <v>1.004137739070023</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012975813172986</v>
+        <v>0.9695440181092028</v>
       </c>
       <c r="D14">
-        <v>1.019458756715446</v>
+        <v>0.9954939946290409</v>
       </c>
       <c r="E14">
-        <v>1.039344641189966</v>
+        <v>0.97589535333932</v>
       </c>
       <c r="F14">
-        <v>1.042167645205373</v>
+        <v>0.9763058937862116</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025926416837633</v>
+        <v>1.03616948097952</v>
       </c>
       <c r="J14">
-        <v>1.019713733461305</v>
+        <v>1.000278633500591</v>
       </c>
       <c r="K14">
-        <v>1.023092074751791</v>
+        <v>1.010518472016822</v>
       </c>
       <c r="L14">
-        <v>1.042903096817447</v>
+        <v>0.9913042163686087</v>
       </c>
       <c r="M14">
-        <v>1.045715729445363</v>
+        <v>0.9917064966325319</v>
       </c>
       <c r="N14">
-        <v>1.010709276644871</v>
+        <v>1.004286445631416</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01306564387964</v>
+        <v>0.9700405256111458</v>
       </c>
       <c r="D15">
-        <v>1.019522487326953</v>
+        <v>0.9958441349298451</v>
       </c>
       <c r="E15">
-        <v>1.039475593178215</v>
+        <v>0.9765544834440839</v>
       </c>
       <c r="F15">
-        <v>1.042305285228566</v>
+        <v>0.9770010784204597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025939144665688</v>
+        <v>1.036300803265396</v>
       </c>
       <c r="J15">
-        <v>1.01976501720668</v>
+        <v>1.000556038221597</v>
       </c>
       <c r="K15">
-        <v>1.023135698604227</v>
+        <v>1.010772486536432</v>
       </c>
       <c r="L15">
-        <v>1.043014141968784</v>
+        <v>0.9918580459104926</v>
       </c>
       <c r="M15">
-        <v>1.045833501431213</v>
+        <v>0.9922957336736783</v>
       </c>
       <c r="N15">
-        <v>1.010726146465604</v>
+        <v>1.00437768508135</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013588437843347</v>
+        <v>0.9729018925547341</v>
       </c>
       <c r="D16">
-        <v>1.019893187512726</v>
+        <v>0.9978624255646242</v>
       </c>
       <c r="E16">
-        <v>1.040238052088251</v>
+        <v>0.9803520831353822</v>
       </c>
       <c r="F16">
-        <v>1.043106647328695</v>
+        <v>0.9810060467309792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026012442843095</v>
+        <v>1.037052031680262</v>
       </c>
       <c r="J16">
-        <v>1.020063217983952</v>
+        <v>1.002153100896829</v>
       </c>
       <c r="K16">
-        <v>1.023389106121243</v>
+        <v>1.012233590547774</v>
       </c>
       <c r="L16">
-        <v>1.043660528241778</v>
+        <v>0.9950476343269775</v>
       </c>
       <c r="M16">
-        <v>1.046519022245058</v>
+        <v>0.9956892108751672</v>
       </c>
       <c r="N16">
-        <v>1.010824237907312</v>
+        <v>1.004902985239889</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013916319492195</v>
+        <v>0.9746722458890649</v>
       </c>
       <c r="D17">
-        <v>1.020125505781024</v>
+        <v>0.999111470396266</v>
       </c>
       <c r="E17">
-        <v>1.040716554143817</v>
+        <v>0.9827010719508369</v>
       </c>
       <c r="F17">
-        <v>1.043609531137336</v>
+        <v>0.9834829835746209</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026057730358526</v>
+        <v>1.037511864132968</v>
       </c>
       <c r="J17">
-        <v>1.020250012962366</v>
+        <v>1.003139772872305</v>
       </c>
       <c r="K17">
-        <v>1.023547618831042</v>
+        <v>1.013135096711424</v>
       </c>
       <c r="L17">
-        <v>1.044066039166782</v>
+        <v>0.9970193684983775</v>
       </c>
       <c r="M17">
-        <v>1.04694906483835</v>
+        <v>0.9977869493418585</v>
       </c>
       <c r="N17">
-        <v>1.010885681365246</v>
+        <v>1.00522753469176</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014107547853818</v>
+        <v>0.9756962667411354</v>
       </c>
       <c r="D18">
-        <v>1.020260936156222</v>
+        <v>0.9998340357991246</v>
       </c>
       <c r="E18">
-        <v>1.040995740277609</v>
+        <v>0.9840596528441532</v>
       </c>
       <c r="F18">
-        <v>1.043902931099921</v>
+        <v>0.9849154498293885</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026083896711704</v>
+        <v>1.037776034222498</v>
       </c>
       <c r="J18">
-        <v>1.020358873910911</v>
+        <v>1.003709960752306</v>
       </c>
       <c r="K18">
-        <v>1.023639916576588</v>
+        <v>1.013655634616381</v>
       </c>
       <c r="L18">
-        <v>1.044302585207453</v>
+        <v>0.9981593297160442</v>
       </c>
       <c r="M18">
-        <v>1.047199913852345</v>
+        <v>0.9989997434232247</v>
       </c>
       <c r="N18">
-        <v>1.010921488959045</v>
+        <v>1.005415094260496</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014172748455903</v>
+        <v>0.9760439949368146</v>
       </c>
       <c r="D19">
-        <v>1.020307101318464</v>
+        <v>1.000079409931576</v>
       </c>
       <c r="E19">
-        <v>1.041090949823438</v>
+        <v>0.9845209723055925</v>
       </c>
       <c r="F19">
-        <v>1.044002985899102</v>
+        <v>0.9854018380703503</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026092776489063</v>
+        <v>1.03786542956853</v>
       </c>
       <c r="J19">
-        <v>1.020395976815218</v>
+        <v>1.003903489359578</v>
       </c>
       <c r="K19">
-        <v>1.023671360545586</v>
+        <v>1.013832236727106</v>
       </c>
       <c r="L19">
-        <v>1.044383244449476</v>
+        <v>0.9985463416827277</v>
       </c>
       <c r="M19">
-        <v>1.047285449029797</v>
+        <v>0.999411478630671</v>
       </c>
       <c r="N19">
-        <v>1.010933693099947</v>
+        <v>1.005478755157294</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013881142900298</v>
+        <v>0.974483198070868</v>
       </c>
       <c r="D20">
-        <v>1.020100588176942</v>
+        <v>0.9989780813876379</v>
       </c>
       <c r="E20">
-        <v>1.040665206725609</v>
+        <v>0.9824502505782152</v>
       </c>
       <c r="F20">
-        <v>1.04355556857754</v>
+        <v>0.9832185120995188</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02605289719558</v>
+        <v>1.037462947986195</v>
       </c>
       <c r="J20">
-        <v>1.020229981284428</v>
+        <v>1.003034465541946</v>
       </c>
       <c r="K20">
-        <v>1.023530628463077</v>
+        <v>1.013038923834722</v>
       </c>
       <c r="L20">
-        <v>1.044022529789989</v>
+        <v>0.99680887402791</v>
       </c>
       <c r="M20">
-        <v>1.046902924058897</v>
+        <v>0.9975630048020493</v>
       </c>
       <c r="N20">
-        <v>1.010879092302951</v>
+        <v>1.005192894986362</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01293287837518</v>
+        <v>0.9693062044508484</v>
       </c>
       <c r="D21">
-        <v>1.019428293046303</v>
+        <v>0.9953262957242345</v>
       </c>
       <c r="E21">
-        <v>1.039282058502368</v>
+        <v>0.9755796274928941</v>
       </c>
       <c r="F21">
-        <v>1.042101865608308</v>
+        <v>0.9759728912840173</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025920319867411</v>
+        <v>1.036106482569551</v>
       </c>
       <c r="J21">
-        <v>1.019689217707903</v>
+        <v>1.000145735676035</v>
       </c>
       <c r="K21">
-        <v>1.023071216279645</v>
+        <v>1.010396757169376</v>
       </c>
       <c r="L21">
-        <v>1.042850024779356</v>
+        <v>0.9910389065991179</v>
       </c>
       <c r="M21">
-        <v>1.045659442052339</v>
+        <v>0.9914242246916705</v>
       </c>
       <c r="N21">
-        <v>1.010701212138899</v>
+        <v>1.004242735415622</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012336497674111</v>
+        <v>0.9659686009353646</v>
       </c>
       <c r="D22">
-        <v>1.019004911488335</v>
+        <v>0.9929733900106673</v>
       </c>
       <c r="E22">
-        <v>1.038413164830066</v>
+        <v>0.9711469488023515</v>
       </c>
       <c r="F22">
-        <v>1.041188542548704</v>
+        <v>0.971297229025742</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025834724410998</v>
+        <v>1.035215802371606</v>
       </c>
       <c r="J22">
-        <v>1.019348381968753</v>
+        <v>0.9982786999881401</v>
       </c>
       <c r="K22">
-        <v>1.022780931059625</v>
+        <v>1.008685342505983</v>
       </c>
       <c r="L22">
-        <v>1.042112981393368</v>
+        <v>0.9873125097732354</v>
       </c>
       <c r="M22">
-        <v>1.044877719690388</v>
+        <v>0.9874595743941669</v>
       </c>
       <c r="N22">
-        <v>1.010589091351088</v>
+        <v>1.003628691860867</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01265266610604</v>
+        <v>0.9677460219666983</v>
       </c>
       <c r="D23">
-        <v>1.019229418303322</v>
+        <v>0.9942262535545614</v>
       </c>
       <c r="E23">
-        <v>1.038873711532943</v>
+        <v>0.9735079434472066</v>
       </c>
       <c r="F23">
-        <v>1.04167264863534</v>
+        <v>0.9737877425876643</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025880312146603</v>
+        <v>1.035691624367071</v>
       </c>
       <c r="J23">
-        <v>1.019529144453989</v>
+        <v>0.9992734080299162</v>
       </c>
       <c r="K23">
-        <v>1.022934952377992</v>
+        <v>1.009597477737057</v>
       </c>
       <c r="L23">
-        <v>1.042503687564238</v>
+        <v>0.9892976679290075</v>
       </c>
       <c r="M23">
-        <v>1.045292116022376</v>
+        <v>0.9895716585446007</v>
       </c>
       <c r="N23">
-        <v>1.010648555198931</v>
+        <v>1.003955832159328</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013897037748154</v>
+        <v>0.9745686471533815</v>
       </c>
       <c r="D24">
-        <v>1.020111847607519</v>
+        <v>0.9990383725919407</v>
       </c>
       <c r="E24">
-        <v>1.040688408153761</v>
+        <v>0.9825636215430985</v>
       </c>
       <c r="F24">
-        <v>1.043579951699181</v>
+        <v>0.9833380532537945</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026055081863566</v>
+        <v>1.037485063564886</v>
       </c>
       <c r="J24">
-        <v>1.020239033026059</v>
+        <v>1.003082065806034</v>
       </c>
       <c r="K24">
-        <v>1.023538306173571</v>
+        <v>1.0130823965565</v>
       </c>
       <c r="L24">
-        <v>1.044042189747358</v>
+        <v>0.996904018607754</v>
       </c>
       <c r="M24">
-        <v>1.046923773052193</v>
+        <v>0.9976642289350144</v>
       </c>
       <c r="N24">
-        <v>1.010882069713413</v>
+        <v>1.005208552559983</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015340295170845</v>
+        <v>0.9821508953598649</v>
       </c>
       <c r="D25">
-        <v>1.021132833956144</v>
+        <v>1.004389206338245</v>
       </c>
       <c r="E25">
-        <v>1.042797562077951</v>
+        <v>0.9926229840460247</v>
       </c>
       <c r="F25">
-        <v>1.045796270730393</v>
+        <v>0.9939424060364034</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026248118307597</v>
+        <v>1.039408261162702</v>
       </c>
       <c r="J25">
-        <v>1.021059152354103</v>
+        <v>1.007294254720538</v>
       </c>
       <c r="K25">
-        <v>1.024232182832198</v>
+        <v>1.016919765511588</v>
       </c>
       <c r="L25">
-        <v>1.045828261189635</v>
+        <v>1.005336908414451</v>
       </c>
       <c r="M25">
-        <v>1.04881771244392</v>
+        <v>1.006635491875594</v>
       </c>
       <c r="N25">
-        <v>1.011151820071311</v>
+        <v>1.006594214273375</v>
       </c>
     </row>
   </sheetData>
